--- a/tests/data/output/single_sample_reports/sdb_oxidation.xlsx
+++ b/tests/data/output/single_sample_reports/sdb_oxidation.xlsx
@@ -441,17 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>temp_i_K</t>
+          <t>temp_i_C</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>temp_p_K</t>
+          <t>temp_p_C</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>temp_b_K</t>
+          <t>temp_b_C</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>461.1678994472229</v>
+        <v>188.017899447223</v>
       </c>
       <c r="C2" t="n">
-        <v>676.4245459331403</v>
+        <v>403.2745459331403</v>
       </c>
       <c r="D2" t="n">
-        <v>998.5093050802843</v>
+        <v>725.3593050802842</v>
       </c>
       <c r="E2" t="n">
-        <v>5.531531133308505e-10</v>
+        <v>4.581039510071716e-09</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>461.367952092656</v>
+        <v>188.217952092656</v>
       </c>
       <c r="C3" t="n">
-        <v>676.4245459331403</v>
+        <v>403.2745459331403</v>
       </c>
       <c r="D3" t="n">
-        <v>1028.917307186102</v>
+        <v>755.7673071861016</v>
       </c>
       <c r="E3" t="n">
-        <v>5.141292778029671e-10</v>
+        <v>4.205692030221754e-09</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>463.368478546986</v>
+        <v>190.218478546986</v>
       </c>
       <c r="C4" t="n">
-        <v>676.2244932877073</v>
+        <v>403.0744932877073</v>
       </c>
       <c r="D4" t="n">
-        <v>1015.113674651224</v>
+        <v>741.963674651224</v>
       </c>
       <c r="E4" t="n">
-        <v>5.131253527542628e-10</v>
+        <v>4.165844684650498e-09</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>461.9681100289549</v>
+        <v>188.818110028955</v>
       </c>
       <c r="C5" t="n">
-        <v>676.357861717996</v>
+        <v>403.207861717996</v>
       </c>
       <c r="D5" t="n">
-        <v>1014.180095639203</v>
+        <v>741.0300956392033</v>
       </c>
       <c r="E5" t="n">
-        <v>5.268025812960268e-10</v>
+        <v>4.317525408314656e-09</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9935724281452086</v>
+        <v>0.9935724281452066</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09430572145329676</v>
+        <v>0.09430572145332355</v>
       </c>
       <c r="D6" t="n">
         <v>12.43155461840586</v>
       </c>
       <c r="E6" t="n">
-        <v>1.863714696092288e-11</v>
+        <v>1.870413752905868e-10</v>
       </c>
     </row>
   </sheetData>
